--- a/template/SpecTemplate.xlsx
+++ b/template/SpecTemplate.xlsx
@@ -7,12 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Validation" sheetId="1" r:id="rId1"/>
+    <sheet name="field" sheetId="2" r:id="rId1"/>
+    <sheet name="Validation" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Validation!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">field!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Validation!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -62,12 +64,71 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>表示ラベル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API参照名</t>
+    <rPh sb="3" eb="6">
+      <t>サンショウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式/選択リスト値</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +178,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -207,7 +274,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -233,8 +300,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,6 +347,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,8 +359,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="39">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -289,6 +382,13 @@
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -302,6 +402,13 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -633,10 +740,2624 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
       <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="9" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" style="9" customWidth="1"/>
+    <col min="12" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="18" width="5.1640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="12" customHeight="1">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" ht="12" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" ht="12" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="12" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" ht="12" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="12" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="13" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="12" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="12" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="12" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="12" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="12" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="12" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="12" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="12" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="12" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" ht="12" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" ht="12" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" ht="12" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" ht="12" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" ht="12" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" ht="12" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" ht="12" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" ht="12" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" ht="12" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" ht="12" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" ht="12" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" ht="12" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" ht="12" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" ht="12" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" ht="12" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" ht="12" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" ht="12" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" ht="12" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" ht="12" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" ht="12" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" ht="12" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" ht="12" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" ht="12" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" ht="12" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" ht="12" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" ht="12" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" ht="12" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" ht="12" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" ht="12" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" ht="12" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" ht="12" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" ht="12" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" ht="12" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" ht="12" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" ht="12" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19" ht="12" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19" ht="12" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" ht="12" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19" ht="12" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19" ht="12" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19" ht="12" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19" ht="12" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" ht="12" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" ht="12" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" ht="12" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" ht="12" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" ht="12" customHeight="1">
+      <c r="A63" s="1"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" ht="12" customHeight="1">
+      <c r="A64" s="1"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" ht="12" customHeight="1">
+      <c r="A65" s="1"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" ht="12" customHeight="1">
+      <c r="A66" s="1"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19" ht="12" customHeight="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19" ht="12" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" ht="12" customHeight="1">
+      <c r="A69" s="1"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" ht="12" customHeight="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" ht="12" customHeight="1">
+      <c r="A71" s="1"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" ht="12" customHeight="1">
+      <c r="A72" s="1"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" ht="12" customHeight="1">
+      <c r="A73" s="1"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" ht="12" customHeight="1">
+      <c r="A74" s="1"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" ht="12" customHeight="1">
+      <c r="A75" s="1"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" ht="12" customHeight="1">
+      <c r="A76" s="1"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" ht="12" customHeight="1">
+      <c r="A77" s="1"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" ht="12" customHeight="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" ht="12" customHeight="1">
+      <c r="A79" s="1"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" ht="12" customHeight="1">
+      <c r="A80" s="1"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19" ht="12" customHeight="1">
+      <c r="A81" s="1"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="1:19" ht="12" customHeight="1">
+      <c r="A82" s="1"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19" ht="12" customHeight="1">
+      <c r="A83" s="1"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19" ht="12" customHeight="1">
+      <c r="A84" s="1"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" ht="12" customHeight="1">
+      <c r="A85" s="1"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:19" ht="12" customHeight="1">
+      <c r="A86" s="1"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19" ht="12" customHeight="1">
+      <c r="A87" s="1"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19" ht="12" customHeight="1">
+      <c r="A88" s="1"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19" ht="12" customHeight="1">
+      <c r="A89" s="1"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19" ht="12" customHeight="1">
+      <c r="A90" s="1"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="1:19" ht="12" customHeight="1">
+      <c r="A91" s="1"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="1:19" ht="12" customHeight="1">
+      <c r="A92" s="1"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19" ht="12" customHeight="1">
+      <c r="A93" s="1"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19" ht="12" customHeight="1">
+      <c r="A94" s="1"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19" ht="12" customHeight="1">
+      <c r="A95" s="1"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:19" ht="12" customHeight="1">
+      <c r="A96" s="1"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19" ht="12" customHeight="1">
+      <c r="A97" s="1"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:19" ht="12" customHeight="1">
+      <c r="A98" s="1"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19" ht="12" customHeight="1">
+      <c r="A99" s="1"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="1:19" ht="12" customHeight="1">
+      <c r="A100" s="1"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19" ht="12" customHeight="1">
+      <c r="A101" s="1"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19" ht="12" customHeight="1">
+      <c r="A102" s="1"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19" ht="12" customHeight="1">
+      <c r="A103" s="1"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="1:19" ht="12" customHeight="1">
+      <c r="A104" s="1"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="1:19" ht="12" customHeight="1">
+      <c r="A105" s="1"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="1:19" ht="12" customHeight="1">
+      <c r="A106" s="1"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="1:19" ht="12" customHeight="1">
+      <c r="A107" s="1"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="1:19" ht="12" customHeight="1">
+      <c r="A108" s="1"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="1:19" ht="12" customHeight="1">
+      <c r="A109" s="1"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="1:19" ht="12" customHeight="1">
+      <c r="A110" s="1"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="1:19" ht="12" customHeight="1">
+      <c r="A111" s="1"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="1:19" ht="12" customHeight="1">
+      <c r="A112" s="1"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="1:19" ht="12" customHeight="1">
+      <c r="A113" s="1"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="1:19" ht="12" customHeight="1">
+      <c r="A114" s="1"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="1:19" ht="12" customHeight="1">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="1:19" ht="12" customHeight="1">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="1:19" ht="12" customHeight="1">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="1:19" ht="12" customHeight="1">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119" spans="1:19" ht="12" customHeight="1">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="1"/>
+    </row>
+    <row r="120" spans="1:19" ht="12" customHeight="1">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="1:19" ht="12" customHeight="1">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="L3:N4"/>
+    <mergeCell ref="O1:S2"/>
+    <mergeCell ref="O3:S4"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="I3:K4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P121"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -649,76 +3370,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" ht="12" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1">
       <c r="A5" s="1"/>
@@ -746,29 +3467,29 @@
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="12" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>

--- a/template/SpecTemplate.xlsx
+++ b/template/SpecTemplate.xlsx
@@ -274,7 +274,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -314,8 +314,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,26 +362,38 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="51">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -389,6 +413,12 @@
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -409,6 +439,12 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -743,7 +779,7 @@
   <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -762,88 +798,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="12" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="12" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19" ht="12" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5" spans="1:19" ht="12" customHeight="1">
       <c r="A5" s="1"/>
@@ -871,33 +907,33 @@
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
       <c r="P6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="R6" s="13" t="s">
@@ -908,2269 +944,2269 @@
     <row r="7" spans="1:19" ht="13" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
       <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
       <c r="S74" s="1"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
       <c r="S75" s="1"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
       <c r="S76" s="1"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
       <c r="S77" s="1"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
       <c r="S80" s="1"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
       <c r="S81" s="1"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
       <c r="S82" s="1"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
       <c r="S83" s="1"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
       <c r="S84" s="1"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
       <c r="S85" s="1"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
       <c r="S86" s="1"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
       <c r="S87" s="1"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
       <c r="S88" s="1"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
       <c r="S89" s="1"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
       <c r="S90" s="1"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
       <c r="S91" s="1"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
       <c r="S92" s="1"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
       <c r="S93" s="1"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
       <c r="S94" s="1"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
       <c r="S95" s="1"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
       <c r="S96" s="1"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
       <c r="S97" s="1"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
       <c r="S98" s="1"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
       <c r="S99" s="1"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
       <c r="S100" s="1"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="6"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
       <c r="S101" s="1"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="15"/>
       <c r="S102" s="1"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="15"/>
       <c r="S103" s="1"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
       <c r="S104" s="1"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="23"/>
+      <c r="N105" s="23"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
       <c r="S105" s="1"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="6"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="19"/>
-      <c r="R106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
       <c r="S106" s="1"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
       <c r="S107" s="1"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="6"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
       <c r="S108" s="1"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="6"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-      <c r="R109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="23"/>
+      <c r="N109" s="23"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
       <c r="S109" s="1"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="6"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="23"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="15"/>
       <c r="S110" s="1"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="6"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="23"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="15"/>
       <c r="S111" s="1"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="6"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="23"/>
+      <c r="N112" s="23"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="15"/>
       <c r="S112" s="1"/>
     </row>
     <row r="113" spans="1:19" ht="12" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
       <c r="S113" s="1"/>
     </row>
     <row r="114" spans="1:19" ht="12" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="23"/>
+      <c r="N114" s="23"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
       <c r="S114" s="1"/>
     </row>
     <row r="115" spans="1:19" ht="12" customHeight="1">
@@ -3321,12 +3357,547 @@
       <c r="S121" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
+  <mergeCells count="555">
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="L107:O107"/>
+    <mergeCell ref="L108:O108"/>
+    <mergeCell ref="L109:O109"/>
+    <mergeCell ref="L110:O110"/>
+    <mergeCell ref="L111:O111"/>
+    <mergeCell ref="L102:O102"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="L101:O101"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="I110:K110"/>
+    <mergeCell ref="I111:K111"/>
+    <mergeCell ref="I112:K112"/>
+    <mergeCell ref="I113:K113"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="I106:K106"/>
+    <mergeCell ref="I107:K107"/>
+    <mergeCell ref="I108:K108"/>
+    <mergeCell ref="I109:K109"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="I96:K96"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="I87:K87"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="L1:N2"/>
     <mergeCell ref="L3:N4"/>
     <mergeCell ref="O1:S2"/>
@@ -3337,6 +3908,11 @@
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="F3:H4"/>
     <mergeCell ref="I3:K4"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -3370,76 +3946,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" ht="12" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1">
       <c r="A5" s="1"/>
@@ -3467,26 +4043,26 @@
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="12" customHeight="1">
